--- a/DDAf_2022_tableau_annexe_Tab04.xlsx
+++ b/DDAf_2022_tableau_annexe_Tab04.xlsx
@@ -28,9 +28,6 @@
     <t>Retour au Contenu</t>
   </si>
   <si>
-    <t>Tableau 4 : Taux de croissance annuel de la population, 1990-2026</t>
-  </si>
-  <si>
     <t>ISO3 Code</t>
   </si>
   <si>
@@ -626,6 +623,9 @@
   </si>
   <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel non compressé, y compris les données historiques remontant à 2000, cliquez ici pour télécharger le deuxième des deux fichiers de données</t>
+  </si>
+  <si>
+    <t>Tableau 4 : Croissance annuelle du PIB réel par habitant, 1990-2026</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1374,9 @@
   </sheetPr>
   <dimension ref="A1:AN113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1391,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1433,132 +1435,132 @@
     </row>
     <row r="2" spans="1:40" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AD2" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="AE2" s="8">
         <v>2018</v>
       </c>
       <c r="AF2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AH2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AI2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AL2" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="AM2" s="8">
         <v>2026</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="C3" s="12">
         <v>-6.6574672590663999</v>
@@ -1677,10 +1679,10 @@
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="C4" s="15">
         <v>5.2133957193178304</v>
@@ -1799,10 +1801,10 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>45</v>
       </c>
       <c r="C5" s="19">
         <v>6.66267813733461</v>
@@ -1921,10 +1923,10 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="C6" s="19">
         <v>2.8948399283866602</v>
@@ -2043,10 +2045,10 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>49</v>
       </c>
       <c r="C7" s="19">
         <v>1.9956070084022901</v>
@@ -2165,10 +2167,10 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>51</v>
       </c>
       <c r="C8" s="19">
         <v>-0.41026642926969997</v>
@@ -2287,13 +2289,13 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="D9" s="19">
         <v>2.2388130313346002</v>
@@ -2409,22 +2411,22 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>56</v>
-      </c>
       <c r="C10" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="19">
         <v>0.83318366269540001</v>
@@ -2531,10 +2533,10 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>57</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>58</v>
       </c>
       <c r="C11" s="15">
         <v>-3.2586487055140001</v>
@@ -2653,37 +2655,37 @@
     </row>
     <row r="12" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>60</v>
-      </c>
       <c r="C12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L12" s="22">
         <v>-1.7433546952032</v>
@@ -2775,10 +2777,10 @@
     </row>
     <row r="13" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>61</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>62</v>
       </c>
       <c r="C13" s="26">
         <v>-1.3802071520225001</v>
@@ -2897,10 +2899,10 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="C14" s="19">
         <v>0.94944483837294003</v>
@@ -3019,10 +3021,10 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>65</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="C15" s="19">
         <v>-8.9832613575898996</v>
@@ -3141,10 +3143,10 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="C16" s="19">
         <v>-0.8389220975078</v>
@@ -3263,10 +3265,10 @@
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>69</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>70</v>
       </c>
       <c r="C17" s="12">
         <v>-7.4424667698400004E-2</v>
@@ -3385,10 +3387,10 @@
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="C18" s="12">
         <v>-1.7214074648333999</v>
@@ -3507,10 +3509,10 @@
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>74</v>
       </c>
       <c r="C19" s="15">
         <v>-9.6652199624488002</v>
@@ -3629,10 +3631,10 @@
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>75</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>76</v>
       </c>
       <c r="C20" s="12">
         <v>-0.53770190405380003</v>
@@ -3751,10 +3753,10 @@
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>77</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>78</v>
       </c>
       <c r="C21" s="12">
         <v>2.29182542022353</v>
@@ -3873,10 +3875,10 @@
     </row>
     <row r="22" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>79</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>80</v>
       </c>
       <c r="C22" s="19">
         <v>-4.5312989803201003</v>
@@ -3995,10 +3997,10 @@
     </row>
     <row r="23" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="26">
         <v>-5.9993678569610998</v>
@@ -4117,10 +4119,10 @@
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>82</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>83</v>
       </c>
       <c r="C24" s="19">
         <v>4.2431624563662904</v>
@@ -4239,13 +4241,13 @@
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>85</v>
-      </c>
       <c r="C25" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="19">
         <v>-7.0464446650412</v>
@@ -4361,19 +4363,19 @@
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>87</v>
-      </c>
       <c r="C26" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26" s="19">
         <v>13.8382392724825</v>
@@ -4483,10 +4485,10 @@
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>88</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>89</v>
       </c>
       <c r="C27" s="19">
         <v>-0.8597493108384</v>
@@ -4585,30 +4587,30 @@
         <v>-0.53140634229869999</v>
       </c>
       <c r="AI27" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AJ27" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK27" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL27" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AM27" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AN27" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>91</v>
       </c>
       <c r="C28" s="19">
         <v>0.66841582287627999</v>
@@ -4727,10 +4729,10 @@
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>93</v>
       </c>
       <c r="C29" s="19">
         <v>0.19477662206543001</v>
@@ -4849,10 +4851,10 @@
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>94</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>95</v>
       </c>
       <c r="C30" s="19">
         <v>6.14275457165457</v>
@@ -4971,10 +4973,10 @@
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>97</v>
       </c>
       <c r="C31" s="19">
         <v>0.25501412228700998</v>
@@ -5093,10 +5095,10 @@
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="C32" s="19">
         <v>6.7193379317529196</v>
@@ -5215,76 +5217,76 @@
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>101</v>
-      </c>
       <c r="C33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y33" s="19">
         <v>-1.499481224235</v>
@@ -5337,76 +5339,76 @@
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>103</v>
-      </c>
       <c r="C34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y34" s="15">
         <v>-53.760087056533997</v>
@@ -5459,10 +5461,10 @@
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="C35" s="19">
         <v>-2.5201003344497002</v>
@@ -5581,10 +5583,10 @@
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>106</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>107</v>
       </c>
       <c r="C36" s="19">
         <v>3.6809421291034101</v>
@@ -5703,10 +5705,10 @@
     </row>
     <row r="37" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>109</v>
       </c>
       <c r="C37" s="19">
         <v>2.8685003670249798</v>
@@ -5825,10 +5827,10 @@
     </row>
     <row r="38" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38" s="26">
         <v>0.68895055385359005</v>
@@ -5947,10 +5949,10 @@
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>111</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>112</v>
       </c>
       <c r="C39" s="12">
         <v>-1.7540770594938999</v>
@@ -6069,10 +6071,10 @@
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>114</v>
       </c>
       <c r="C40" s="19">
         <v>-0.1041053841277</v>
@@ -6191,10 +6193,10 @@
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>115</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>116</v>
       </c>
       <c r="C41" s="12">
         <v>1.2016627465702101</v>
@@ -6313,13 +6315,13 @@
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="29" t="s">
-        <v>118</v>
-      </c>
       <c r="C42" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" s="12">
         <v>-2.5655750188945001</v>
@@ -6435,10 +6437,10 @@
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>119</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>120</v>
       </c>
       <c r="C43" s="19">
         <v>2.1398687189839798</v>
@@ -6557,10 +6559,10 @@
     </row>
     <row r="44" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>121</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>122</v>
       </c>
       <c r="C44" s="19">
         <v>4.70639475771031</v>
@@ -6679,10 +6681,10 @@
     </row>
     <row r="45" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" s="26">
         <v>0.18077114028569999</v>
@@ -6801,10 +6803,10 @@
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="C46" s="19">
         <v>5.50734558849698</v>
@@ -6923,10 +6925,10 @@
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>126</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="C47" s="19">
         <v>-3.2112589145291999</v>
@@ -7045,10 +7047,10 @@
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>129</v>
       </c>
       <c r="C48" s="19">
         <v>-1.3255580436687</v>
@@ -7167,10 +7169,10 @@
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>130</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>131</v>
       </c>
       <c r="C49" s="19">
         <v>-4.5937322634158004</v>
@@ -7289,10 +7291,10 @@
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>132</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>133</v>
       </c>
       <c r="C50" s="19">
         <v>1.2756315845939199</v>
@@ -7411,10 +7413,10 @@
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>135</v>
       </c>
       <c r="C51" s="15">
         <v>0.65092630870295998</v>
@@ -7533,10 +7535,10 @@
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>136</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>137</v>
       </c>
       <c r="C52" s="19">
         <v>1.2890427390410499</v>
@@ -7655,10 +7657,10 @@
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>139</v>
       </c>
       <c r="C53" s="19">
         <v>2.27604827439936</v>
@@ -7777,43 +7779,43 @@
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B54" s="18" t="s">
-        <v>141</v>
-      </c>
       <c r="C54" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M54" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N54" s="19">
         <v>-0.91095318146479998</v>
@@ -7899,10 +7901,10 @@
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>142</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>143</v>
       </c>
       <c r="C55" s="19">
         <v>7.3311556663819299</v>
@@ -8021,10 +8023,10 @@
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>144</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>145</v>
       </c>
       <c r="C56" s="19">
         <v>-4.3374729170402002</v>
@@ -8143,13 +8145,13 @@
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="B57" s="29" t="s">
-        <v>147</v>
-      </c>
       <c r="C57" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D57" s="12">
         <v>-3.0519620659334001</v>
@@ -8265,10 +8267,10 @@
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>148</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>149</v>
       </c>
       <c r="C58" s="19">
         <v>-3.6158549308793</v>
@@ -8387,10 +8389,10 @@
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>150</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>151</v>
       </c>
       <c r="C59" s="19">
         <v>7.4114336279829995E-2</v>
@@ -8509,10 +8511,10 @@
     </row>
     <row r="60" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>153</v>
       </c>
       <c r="C60" s="15">
         <v>3.2109461808353501</v>
@@ -8632,7 +8634,7 @@
     <row r="61" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C61" s="26">
         <v>-0.66170247073580002</v>
@@ -8752,7 +8754,7 @@
     <row r="62" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C62" s="32">
         <v>-0.59833587086759998</v>
@@ -8872,7 +8874,7 @@
     <row r="63" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C63" s="32">
         <v>1.96043403786143</v>
@@ -8992,7 +8994,7 @@
     <row r="64" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C64" s="36">
         <v>-1.2264002605032001</v>
@@ -9112,7 +9114,7 @@
     <row r="65" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C65" s="39">
         <v>5.0105381981164498</v>
@@ -9232,7 +9234,7 @@
     <row r="66" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C66" s="42">
         <v>1.76943778806727</v>
@@ -9352,7 +9354,7 @@
     <row r="67" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C67" s="39">
         <v>-0.39426040208730001</v>
@@ -9472,7 +9474,7 @@
     <row r="68" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C68" s="39">
         <v>0.25327265729498999</v>
@@ -9592,7 +9594,7 @@
     <row r="69" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C69" s="39">
         <v>2.2427029636326501</v>
@@ -9712,7 +9714,7 @@
     <row r="70" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C70" s="39">
         <v>-5.7408744192845997</v>
@@ -9832,7 +9834,7 @@
     <row r="71" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C71" s="39">
         <v>-0.66170247073580002</v>
@@ -9952,7 +9954,7 @@
     <row r="72" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C72" s="39">
         <v>-0.14245115147779999</v>
@@ -10072,7 +10074,7 @@
     <row r="73" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C73" s="39">
         <v>-2.0286629916686998</v>
@@ -10192,7 +10194,7 @@
     <row r="74" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C74" s="39">
         <v>0.3752896003308</v>
@@ -10312,7 +10314,7 @@
     <row r="75" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C75" s="42">
         <v>-4.6413939427638997</v>
@@ -10432,7 +10434,7 @@
     <row r="76" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C76" s="39">
         <v>6.2853655379435498</v>
@@ -10552,7 +10554,7 @@
     <row r="77" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C77" s="39">
         <v>-3.0868374450672</v>
@@ -10672,7 +10674,7 @@
     <row r="78" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C78" s="39">
         <v>2.42115412321444</v>
@@ -10792,7 +10794,7 @@
     <row r="79" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C79" s="42">
         <v>2.22954305015995</v>
@@ -10912,7 +10914,7 @@
     <row r="80" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C80" s="39">
         <v>-1.0013397771239001</v>
@@ -11032,7 +11034,7 @@
     <row r="81" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C81" s="39">
         <v>10.9726466346454</v>
@@ -11152,7 +11154,7 @@
     <row r="82" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C82" s="39">
         <v>-0.39723226004360002</v>
@@ -11272,7 +11274,7 @@
     <row r="83" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C83" s="42">
         <v>1.41363699521423</v>
@@ -11392,7 +11394,7 @@
     <row r="84" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C84" s="39">
         <v>-1.6771730515754999</v>
@@ -11512,7 +11514,7 @@
     <row r="85" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C85" s="39">
         <v>7.0015803406323496</v>
@@ -11632,7 +11634,7 @@
     <row r="86" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C86" s="39">
         <v>-0.73577933200599999</v>
@@ -11752,7 +11754,7 @@
     <row r="87" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C87" s="39">
         <v>5.63999057476153</v>
@@ -11872,7 +11874,7 @@
     <row r="88" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C88" s="39">
         <v>1.7714386959561499</v>
@@ -11992,7 +11994,7 @@
     <row r="89" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C89" s="39">
         <v>0.64714500089822002</v>
@@ -12112,7 +12114,7 @@
     <row r="90" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C90" s="42">
         <v>2.5689529098086998</v>
@@ -12232,7 +12234,7 @@
     <row r="91" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C91" s="39">
         <v>-1.4932636555595</v>
@@ -12352,7 +12354,7 @@
     <row r="92" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C92" s="39">
         <v>2.3211832029539798</v>
@@ -12472,7 +12474,7 @@
     <row r="93" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C93" s="39">
         <v>4.3667187220400896</v>
@@ -12592,7 +12594,7 @@
     <row r="94" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C94" s="39">
         <v>2.3306494594570499</v>
@@ -12712,7 +12714,7 @@
     <row r="95" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C95" s="39">
         <v>0.77692894236249999</v>
@@ -12832,7 +12834,7 @@
     <row r="96" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C96" s="42">
         <v>1.72937388625824</v>
@@ -12952,7 +12954,7 @@
     <row r="97" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C97" s="39">
         <v>-1.3002939992583999</v>
@@ -13072,7 +13074,7 @@
     <row r="98" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C98" s="39">
         <v>7.69496206607411</v>
@@ -13192,7 +13194,7 @@
     <row r="99" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C99" s="42">
         <v>-1.4333762183403</v>
@@ -13353,7 +13355,7 @@
     </row>
     <row r="101" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -13397,7 +13399,7 @@
     </row>
     <row r="102" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -13441,7 +13443,7 @@
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -13485,7 +13487,7 @@
     </row>
     <row r="104" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -13529,7 +13531,7 @@
     </row>
     <row r="105" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -13614,7 +13616,7 @@
     </row>
     <row r="107" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C107" s="49"/>
       <c r="D107" s="49"/>
@@ -13698,7 +13700,7 @@
     </row>
     <row r="109" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C109" s="49"/>
       <c r="D109" s="49"/>
@@ -13741,7 +13743,7 @@
     </row>
     <row r="110" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -13784,7 +13786,7 @@
     </row>
     <row r="111" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -13827,7 +13829,7 @@
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C112" s="49"/>
       <c r="D112" s="49"/>
@@ -13870,7 +13872,7 @@
     </row>
     <row r="113" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>

--- a/DDAf_2022_tableau_annexe_Tab04.xlsx
+++ b/DDAf_2022_tableau_annexe_Tab04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>
@@ -23,11 +23,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="200">
   <si>
     <t>Retour au Contenu</t>
   </si>
   <si>
+    <t>Tableau 4 : Taux de croissance annuelle du PIB réel par habitant, 1990-2026</t>
+  </si>
+  <si>
     <t>ISO3 Code</t>
   </si>
   <si>
@@ -601,12 +604,12 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
+    <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+  </si>
+  <si>
     <t>Jusqu'à 2020 les chiffres sont des estimations. A partir de 2021 il s'agit de projections.</t>
   </si>
   <si>
-    <t>Source : Base de données des Perspectives de l'économie mondiale du FMI, octobre 2021.</t>
-  </si>
-  <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
   </si>
   <si>
@@ -616,16 +619,10 @@
     <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
   </si>
   <si>
-    <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format csv compressé, y compris les données historiques remontant à 2000, cliquez ici.</t>
-  </si>
-  <si>
-    <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel non compressé, y compris les données historiques remontant à 2000, cliquez ici pour télécharger le premier des deux fichiers de données.</t>
-  </si>
-  <si>
-    <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel non compressé, y compris les données historiques remontant à 2000, cliquez ici pour télécharger le deuxième des deux fichiers de données</t>
-  </si>
-  <si>
-    <t>Tableau 4 : Croissance annuelle du PIB réel par habitant, 1990-2026</t>
+    <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
   </si>
 </sst>
 </file>
@@ -1372,11 +1369,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN113"/>
+  <dimension ref="A1:AN115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1393,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1435,132 +1430,132 @@
     </row>
     <row r="2" spans="1:40" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AE2" s="8">
         <v>2018</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AL2" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AM2" s="8">
         <v>2026</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="12">
         <v>-6.6574672590663999</v>
@@ -1679,10 +1674,10 @@
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="15">
         <v>5.2133957193178304</v>
@@ -1801,10 +1796,10 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="19">
         <v>6.66267813733461</v>
@@ -1923,10 +1918,10 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="19">
         <v>2.8948399283866602</v>
@@ -2045,10 +2040,10 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="19">
         <v>1.9956070084022901</v>
@@ -2167,10 +2162,10 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="19">
         <v>-0.41026642926969997</v>
@@ -2289,13 +2284,13 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="19">
         <v>2.2388130313346002</v>
@@ -2411,22 +2406,22 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>53</v>
-      </c>
       <c r="D10" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" s="19">
         <v>0.83318366269540001</v>
@@ -2533,10 +2528,10 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="15">
         <v>-3.2586487055140001</v>
@@ -2655,37 +2650,37 @@
     </row>
     <row r="12" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L12" s="22">
         <v>-1.7433546952032</v>
@@ -2777,10 +2772,10 @@
     </row>
     <row r="13" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="26">
         <v>-1.3802071520225001</v>
@@ -2899,10 +2894,10 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" s="19">
         <v>0.94944483837294003</v>
@@ -3021,10 +3016,10 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" s="19">
         <v>-8.9832613575898996</v>
@@ -3143,10 +3138,10 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" s="19">
         <v>-0.8389220975078</v>
@@ -3265,10 +3260,10 @@
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" s="12">
         <v>-7.4424667698400004E-2</v>
@@ -3387,10 +3382,10 @@
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" s="12">
         <v>-1.7214074648333999</v>
@@ -3509,10 +3504,10 @@
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="15">
         <v>-9.6652199624488002</v>
@@ -3631,10 +3626,10 @@
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" s="12">
         <v>-0.53770190405380003</v>
@@ -3753,10 +3748,10 @@
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C21" s="12">
         <v>2.29182542022353</v>
@@ -3875,10 +3870,10 @@
     </row>
     <row r="22" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22" s="19">
         <v>-4.5312989803201003</v>
@@ -3997,10 +3992,10 @@
     </row>
     <row r="23" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="26">
         <v>-5.9993678569610998</v>
@@ -4119,10 +4114,10 @@
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C24" s="19">
         <v>4.2431624563662904</v>
@@ -4241,13 +4236,13 @@
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D25" s="19">
         <v>-7.0464446650412</v>
@@ -4363,19 +4358,19 @@
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="19">
         <v>13.8382392724825</v>
@@ -4485,10 +4480,10 @@
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C27" s="19">
         <v>-0.8597493108384</v>
@@ -4587,30 +4582,30 @@
         <v>-0.53140634229869999</v>
       </c>
       <c r="AI27" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ27" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AK27" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL27" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AM27" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AN27" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" s="19">
         <v>0.66841582287627999</v>
@@ -4729,10 +4724,10 @@
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" s="19">
         <v>0.19477662206543001</v>
@@ -4851,10 +4846,10 @@
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C30" s="19">
         <v>6.14275457165457</v>
@@ -4973,10 +4968,10 @@
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C31" s="19">
         <v>0.25501412228700998</v>
@@ -5095,10 +5090,10 @@
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C32" s="19">
         <v>6.7193379317529196</v>
@@ -5217,76 +5212,76 @@
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O33" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R33" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S33" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T33" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U33" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V33" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W33" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X33" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y33" s="19">
         <v>-1.499481224235</v>
@@ -5339,76 +5334,76 @@
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X34" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y34" s="15">
         <v>-53.760087056533997</v>
@@ -5461,10 +5456,10 @@
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C35" s="19">
         <v>-2.5201003344497002</v>
@@ -5583,10 +5578,10 @@
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C36" s="19">
         <v>3.6809421291034101</v>
@@ -5705,10 +5700,10 @@
     </row>
     <row r="37" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C37" s="19">
         <v>2.8685003670249798</v>
@@ -5827,10 +5822,10 @@
     </row>
     <row r="38" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C38" s="26">
         <v>0.68895055385359005</v>
@@ -5949,10 +5944,10 @@
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C39" s="12">
         <v>-1.7540770594938999</v>
@@ -6071,10 +6066,10 @@
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C40" s="19">
         <v>-0.1041053841277</v>
@@ -6193,10 +6188,10 @@
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C41" s="12">
         <v>1.2016627465702101</v>
@@ -6315,13 +6310,13 @@
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D42" s="12">
         <v>-2.5655750188945001</v>
@@ -6437,10 +6432,10 @@
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C43" s="19">
         <v>2.1398687189839798</v>
@@ -6559,10 +6554,10 @@
     </row>
     <row r="44" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C44" s="19">
         <v>4.70639475771031</v>
@@ -6681,10 +6676,10 @@
     </row>
     <row r="45" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C45" s="26">
         <v>0.18077114028569999</v>
@@ -6803,10 +6798,10 @@
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C46" s="19">
         <v>5.50734558849698</v>
@@ -6925,10 +6920,10 @@
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C47" s="19">
         <v>-3.2112589145291999</v>
@@ -7047,10 +7042,10 @@
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C48" s="19">
         <v>-1.3255580436687</v>
@@ -7169,10 +7164,10 @@
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C49" s="19">
         <v>-4.5937322634158004</v>
@@ -7291,10 +7286,10 @@
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C50" s="19">
         <v>1.2756315845939199</v>
@@ -7413,10 +7408,10 @@
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C51" s="15">
         <v>0.65092630870295998</v>
@@ -7535,10 +7530,10 @@
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C52" s="19">
         <v>1.2890427390410499</v>
@@ -7657,10 +7652,10 @@
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C53" s="19">
         <v>2.27604827439936</v>
@@ -7779,43 +7774,43 @@
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M54" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N54" s="19">
         <v>-0.91095318146479998</v>
@@ -7901,10 +7896,10 @@
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C55" s="19">
         <v>7.3311556663819299</v>
@@ -8023,10 +8018,10 @@
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C56" s="19">
         <v>-4.3374729170402002</v>
@@ -8145,13 +8140,13 @@
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D57" s="12">
         <v>-3.0519620659334001</v>
@@ -8267,10 +8262,10 @@
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C58" s="19">
         <v>-3.6158549308793</v>
@@ -8389,10 +8384,10 @@
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C59" s="19">
         <v>7.4114336279829995E-2</v>
@@ -8511,10 +8506,10 @@
     </row>
     <row r="60" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C60" s="15">
         <v>3.2109461808353501</v>
@@ -8634,7 +8629,7 @@
     <row r="61" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C61" s="26">
         <v>-0.66170247073580002</v>
@@ -8754,7 +8749,7 @@
     <row r="62" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C62" s="32">
         <v>-0.59833587086759998</v>
@@ -8874,7 +8869,7 @@
     <row r="63" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C63" s="32">
         <v>1.96043403786143</v>
@@ -8994,7 +8989,7 @@
     <row r="64" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C64" s="36">
         <v>-1.2264002605032001</v>
@@ -9114,7 +9109,7 @@
     <row r="65" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C65" s="39">
         <v>5.0105381981164498</v>
@@ -9234,7 +9229,7 @@
     <row r="66" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="41" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C66" s="42">
         <v>1.76943778806727</v>
@@ -9354,7 +9349,7 @@
     <row r="67" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C67" s="39">
         <v>-0.39426040208730001</v>
@@ -9474,7 +9469,7 @@
     <row r="68" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C68" s="39">
         <v>0.25327265729498999</v>
@@ -9594,7 +9589,7 @@
     <row r="69" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C69" s="39">
         <v>2.2427029636326501</v>
@@ -9714,7 +9709,7 @@
     <row r="70" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C70" s="39">
         <v>-5.7408744192845997</v>
@@ -9834,7 +9829,7 @@
     <row r="71" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C71" s="39">
         <v>-0.66170247073580002</v>
@@ -9954,7 +9949,7 @@
     <row r="72" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C72" s="39">
         <v>-0.14245115147779999</v>
@@ -10074,7 +10069,7 @@
     <row r="73" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C73" s="39">
         <v>-2.0286629916686998</v>
@@ -10194,7 +10189,7 @@
     <row r="74" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C74" s="39">
         <v>0.3752896003308</v>
@@ -10314,7 +10309,7 @@
     <row r="75" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="41" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C75" s="42">
         <v>-4.6413939427638997</v>
@@ -10434,7 +10429,7 @@
     <row r="76" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C76" s="39">
         <v>6.2853655379435498</v>
@@ -10554,7 +10549,7 @@
     <row r="77" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="38" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C77" s="39">
         <v>-3.0868374450672</v>
@@ -10674,7 +10669,7 @@
     <row r="78" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C78" s="39">
         <v>2.42115412321444</v>
@@ -10794,7 +10789,7 @@
     <row r="79" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C79" s="42">
         <v>2.22954305015995</v>
@@ -10914,7 +10909,7 @@
     <row r="80" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C80" s="39">
         <v>-1.0013397771239001</v>
@@ -11034,7 +11029,7 @@
     <row r="81" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C81" s="39">
         <v>10.9726466346454</v>
@@ -11154,7 +11149,7 @@
     <row r="82" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C82" s="39">
         <v>-0.39723226004360002</v>
@@ -11274,7 +11269,7 @@
     <row r="83" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="41" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C83" s="42">
         <v>1.41363699521423</v>
@@ -11394,7 +11389,7 @@
     <row r="84" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C84" s="39">
         <v>-1.6771730515754999</v>
@@ -11514,7 +11509,7 @@
     <row r="85" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C85" s="39">
         <v>7.0015803406323496</v>
@@ -11634,7 +11629,7 @@
     <row r="86" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C86" s="39">
         <v>-0.73577933200599999</v>
@@ -11754,7 +11749,7 @@
     <row r="87" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="38" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C87" s="39">
         <v>5.63999057476153</v>
@@ -11874,7 +11869,7 @@
     <row r="88" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="38" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C88" s="39">
         <v>1.7714386959561499</v>
@@ -11994,7 +11989,7 @@
     <row r="89" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="38" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C89" s="39">
         <v>0.64714500089822002</v>
@@ -12114,7 +12109,7 @@
     <row r="90" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C90" s="42">
         <v>2.5689529098086998</v>
@@ -12234,7 +12229,7 @@
     <row r="91" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C91" s="39">
         <v>-1.4932636555595</v>
@@ -12354,7 +12349,7 @@
     <row r="92" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C92" s="39">
         <v>2.3211832029539798</v>
@@ -12474,7 +12469,7 @@
     <row r="93" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C93" s="39">
         <v>4.3667187220400896</v>
@@ -12594,7 +12589,7 @@
     <row r="94" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C94" s="39">
         <v>2.3306494594570499</v>
@@ -12714,7 +12709,7 @@
     <row r="95" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="38" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C95" s="39">
         <v>0.77692894236249999</v>
@@ -12834,7 +12829,7 @@
     <row r="96" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C96" s="42">
         <v>1.72937388625824</v>
@@ -12954,7 +12949,7 @@
     <row r="97" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C97" s="39">
         <v>-1.3002939992583999</v>
@@ -13074,7 +13069,7 @@
     <row r="98" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C98" s="39">
         <v>7.69496206607411</v>
@@ -13194,7 +13189,7 @@
     <row r="99" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C99" s="42">
         <v>-1.4333762183403</v>
@@ -13355,7 +13350,7 @@
     </row>
     <row r="101" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -13399,7 +13394,7 @@
     </row>
     <row r="102" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -13443,7 +13438,7 @@
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -13487,7 +13482,7 @@
     </row>
     <row r="104" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -13531,7 +13526,7 @@
     </row>
     <row r="105" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -13614,10 +13609,8 @@
       <c r="AM106" s="49"/>
       <c r="AN106" s="49"/>
     </row>
-    <row r="107" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B107" s="50" t="s">
-        <v>194</v>
-      </c>
+    <row r="107" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="B107" s="48"/>
       <c r="C107" s="49"/>
       <c r="D107" s="49"/>
       <c r="E107" s="49"/>
@@ -13658,7 +13651,9 @@
       <c r="AN107" s="49"/>
     </row>
     <row r="108" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="50"/>
+      <c r="B108" s="50" t="s">
+        <v>195</v>
+      </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
       <c r="E108" s="49"/>
@@ -13698,10 +13693,8 @@
       <c r="AM108" s="49"/>
       <c r="AN108" s="49"/>
     </row>
-    <row r="109" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B109" s="2" t="s">
-        <v>195</v>
-      </c>
+    <row r="109" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B109" s="50"/>
       <c r="C109" s="49"/>
       <c r="D109" s="49"/>
       <c r="E109" s="49"/>
@@ -13828,9 +13821,7 @@
       <c r="AN111" s="49"/>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="B112" s="2"/>
       <c r="C112" s="49"/>
       <c r="D112" s="49"/>
       <c r="E112" s="49"/>
@@ -13872,7 +13863,7 @@
     </row>
     <row r="113" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -13913,17 +13904,100 @@
       <c r="AM113" s="49"/>
       <c r="AN113" s="49"/>
     </row>
+    <row r="114" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="B114" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C114" s="49"/>
+      <c r="D114" s="49"/>
+      <c r="E114" s="49"/>
+      <c r="F114" s="49"/>
+      <c r="G114" s="49"/>
+      <c r="H114" s="49"/>
+      <c r="I114" s="49"/>
+      <c r="J114" s="49"/>
+      <c r="K114" s="49"/>
+      <c r="L114" s="49"/>
+      <c r="M114" s="49"/>
+      <c r="N114" s="49"/>
+      <c r="O114" s="49"/>
+      <c r="P114" s="49"/>
+      <c r="Q114" s="49"/>
+      <c r="R114" s="49"/>
+      <c r="S114" s="49"/>
+      <c r="T114" s="49"/>
+      <c r="U114" s="49"/>
+      <c r="V114" s="49"/>
+      <c r="W114" s="49"/>
+      <c r="X114" s="49"/>
+      <c r="Y114" s="49"/>
+      <c r="Z114" s="49"/>
+      <c r="AA114" s="49"/>
+      <c r="AB114" s="49"/>
+      <c r="AC114" s="49"/>
+      <c r="AD114" s="49"/>
+      <c r="AE114" s="49"/>
+      <c r="AF114" s="49"/>
+      <c r="AG114" s="49"/>
+      <c r="AH114" s="49"/>
+      <c r="AI114" s="49"/>
+      <c r="AJ114" s="49"/>
+      <c r="AK114" s="49"/>
+      <c r="AL114" s="49"/>
+      <c r="AM114" s="49"/>
+      <c r="AN114" s="49"/>
+    </row>
+    <row r="115" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="B115" s="2"/>
+      <c r="C115" s="49"/>
+      <c r="D115" s="49"/>
+      <c r="E115" s="49"/>
+      <c r="F115" s="49"/>
+      <c r="G115" s="49"/>
+      <c r="H115" s="49"/>
+      <c r="I115" s="49"/>
+      <c r="J115" s="49"/>
+      <c r="K115" s="49"/>
+      <c r="L115" s="49"/>
+      <c r="M115" s="49"/>
+      <c r="N115" s="49"/>
+      <c r="O115" s="49"/>
+      <c r="P115" s="49"/>
+      <c r="Q115" s="49"/>
+      <c r="R115" s="49"/>
+      <c r="S115" s="49"/>
+      <c r="T115" s="49"/>
+      <c r="U115" s="49"/>
+      <c r="V115" s="49"/>
+      <c r="W115" s="49"/>
+      <c r="X115" s="49"/>
+      <c r="Y115" s="49"/>
+      <c r="Z115" s="49"/>
+      <c r="AA115" s="49"/>
+      <c r="AB115" s="49"/>
+      <c r="AC115" s="49"/>
+      <c r="AD115" s="49"/>
+      <c r="AE115" s="49"/>
+      <c r="AF115" s="49"/>
+      <c r="AG115" s="49"/>
+      <c r="AH115" s="49"/>
+      <c r="AI115" s="49"/>
+      <c r="AJ115" s="49"/>
+      <c r="AK115" s="49"/>
+      <c r="AL115" s="49"/>
+      <c r="AM115" s="49"/>
+      <c r="AN115" s="49"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
-    <hyperlink ref="B111" r:id="rId1"/>
-    <hyperlink ref="B113" r:id="rId2"/>
-    <hyperlink ref="B109" r:id="rId3"/>
-    <hyperlink ref="B110" r:id="rId4"/>
-    <hyperlink ref="B112" r:id="rId5"/>
-    <hyperlink ref="B107" r:id="rId6"/>
+    <hyperlink ref="B108" r:id="rId1"/>
+    <hyperlink ref="B110" r:id="rId2"/>
+    <hyperlink ref="B111" r:id="rId3"/>
+    <hyperlink ref="B113" r:id="rId4"/>
+    <hyperlink ref="B114" r:id="rId5" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="41" fitToHeight="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/DDAf_2022_tableau_annexe_Tab04.xlsx
+++ b/DDAf_2022_tableau_annexe_Tab04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11150"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>
@@ -13995,7 +13995,7 @@
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B114" r:id="rId5" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
+    <hyperlink ref="B114" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId6"/>
